--- a/test/src/main/resources/resource/TestResource.xlsx
+++ b/test/src/main/resources/resource/TestResource.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,6 +67,14 @@
   </si>
   <si>
     <t>END</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>几率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -479,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -490,7 +498,7 @@
     <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -500,8 +508,11 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -511,24 +522,33 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -538,16 +558,22 @@
       <c r="C5" t="s">
         <v>6</v>
       </c>
+      <c r="D5">
+        <v>50</v>
+      </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -556,6 +582,9 @@
       </c>
       <c r="C7" t="s">
         <v>8</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/test/src/main/resources/resource/TestResource.xlsx
+++ b/test/src/main/resources/resource/TestResource.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,10 +47,6 @@
   </si>
   <si>
     <t>四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -490,7 +486,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -500,7 +496,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -509,12 +505,12 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -523,7 +519,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -550,7 +546,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -575,13 +571,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
       </c>
       <c r="D7">
         <v>10</v>

--- a/test/src/main/resources/resource/TestResource.xlsx
+++ b/test/src/main/resources/resource/TestResource.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,10 +34,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>二</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -71,6 +67,10 @@
   </si>
   <si>
     <t>rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -486,7 +486,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -496,7 +496,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -505,12 +505,12 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -519,7 +519,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -527,7 +527,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D3">
         <v>100</v>
@@ -538,7 +538,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -546,13 +546,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5">
         <v>50</v>
@@ -563,7 +563,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D6">
         <v>10</v>
@@ -571,10 +571,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
       </c>
       <c r="D7">
         <v>10</v>
